--- a/DB.xlsx
+++ b/DB.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kondo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kondo\Documents\GitHub\newera\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="10920"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11445" windowHeight="9570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="127">
   <si>
     <t>列名</t>
   </si>
@@ -209,10 +209,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>image_name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>varchar2</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -485,20 +481,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>〇</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>画像名</t>
-    <rPh sb="0" eb="2">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>表示商品</t>
     <rPh sb="2" eb="4">
       <t>ショウヒン</t>
@@ -646,10 +628,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>varchar2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>〇</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -690,6 +668,53 @@
     <t>画像PATH</t>
     <rPh sb="0" eb="2">
       <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>char</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>favorite_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sysdate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お気に入り日時</t>
+    <rPh sb="1" eb="2">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>favorite_comment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>varchar2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お気に入りコメント</t>
+    <rPh sb="1" eb="2">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>イ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1066,11 +1091,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J88"/>
+  <dimension ref="A1:J87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A122" sqref="A49:XFD122"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="29.25" x14ac:dyDescent="0.7"/>
@@ -1122,18 +1147,18 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A2" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A3" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3" s="1">
         <v>10</v>
@@ -1147,7 +1172,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A4" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
@@ -1159,7 +1184,7 @@
         <v>13</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>24</v>
@@ -1167,7 +1192,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A5" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>10</v>
@@ -1179,7 +1204,7 @@
         <v>13</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>25</v>
@@ -1193,7 +1218,7 @@
         <v>17</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.7">
@@ -1215,7 +1240,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A9" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>12</v>
@@ -1227,12 +1252,12 @@
         <v>13</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A10" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>12</v>
@@ -1244,12 +1269,12 @@
         <v>13</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A11" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>12</v>
@@ -1261,13 +1286,13 @@
         <v>13</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.7">
@@ -1284,7 +1309,7 @@
         <v>13</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.7">
@@ -1301,10 +1326,10 @@
         <v>13</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.7">
@@ -1321,10 +1346,10 @@
         <v>13</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.7">
@@ -1341,32 +1366,32 @@
         <v>13</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A16" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A17" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>12</v>
@@ -1375,26 +1400,26 @@
         <v>10</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A19" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A20" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C20" s="1">
         <v>10</v>
@@ -1403,18 +1428,18 @@
         <v>13</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A21" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C21" s="1">
         <v>10</v>
@@ -1423,10 +1448,10 @@
         <v>38</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.7">
@@ -1434,7 +1459,7 @@
         <v>35</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.7">
@@ -1442,7 +1467,7 @@
         <v>36</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C24" s="1">
         <v>10</v>
@@ -1456,10 +1481,10 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A25" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="C25" s="1">
         <v>100</v>
@@ -1468,269 +1493,269 @@
         <v>38</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="A26" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B26" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.7">
+      <c r="A27" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="1">
-        <v>100</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>122</v>
+      <c r="J27" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A28" s="1" t="s">
-        <v>42</v>
+        <v>57</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="1">
+        <v>10</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A29" s="1" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C29" s="1">
         <v>10</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>59</v>
+      <c r="D29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="A30" s="1" t="s">
-        <v>43</v>
+      <c r="A30" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C30" s="1">
         <v>10</v>
       </c>
       <c r="D30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.7">
+      <c r="A31" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H30" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="A31" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C31" s="1">
-        <v>10</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>109</v>
+      <c r="I31" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>112</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A32" s="1" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="A33" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>69</v>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.7">
+      <c r="A34" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A35" s="3" t="s">
         <v>62</v>
       </c>
+      <c r="B35" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" s="1">
+        <v>10</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="J35" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A36" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C36" s="1">
         <v>10</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A37" s="3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C37" s="1">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>109</v>
+        <v>58</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A38" s="3" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="A39" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>73</v>
-      </c>
+      <c r="A39" s="3"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="A40" s="3"/>
+      <c r="A40" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="1">
+        <v>10</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.7">
+      <c r="A42" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J41" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="A42" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="B42" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C42" s="1">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>109</v>
+        <v>45</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I42" s="1">
+        <v>0</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="A43" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I43" s="1">
-        <v>0</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>49</v>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.7">
+      <c r="A44" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A45" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" s="1">
+        <v>10</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A46" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C46" s="1">
         <v>10</v>
@@ -1739,7 +1764,7 @@
         <v>13</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>54</v>
@@ -1747,23 +1772,37 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A47" s="1" t="s">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C47" s="1">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>110</v>
+        <v>58</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>55</v>
-      </c>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.7">
+      <c r="A48" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C48" s="1">
+        <v>400</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A77" s="2"/>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.7">
       <c r="A78" s="2"/>
@@ -1780,11 +1819,8 @@
     <row r="82" spans="1:1" x14ac:dyDescent="0.7">
       <c r="A82" s="2"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.7">
-      <c r="A83" s="2"/>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.7">
-      <c r="A88" s="2"/>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A87" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/DB.xlsx
+++ b/DB.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kondo\Documents\GitHub\newera\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VIP\Documents\GitHub\newera\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F17DE8-4E26-4254-A6F5-A1C3420A3E11}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11445" windowHeight="9570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="124">
   <si>
     <t>列名</t>
   </si>
@@ -125,13 +126,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>値段</t>
-    <rPh sb="0" eb="2">
-      <t>ネダン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>お気に入り</t>
     <rPh sb="1" eb="2">
       <t>キ</t>
@@ -378,16 +372,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>注文合計</t>
-    <rPh sb="0" eb="2">
-      <t>チュウモン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ゴウケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>detail_num</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -397,16 +381,6 @@
   </si>
   <si>
     <t>number</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>明細小計</t>
-    <rPh sb="0" eb="2">
-      <t>メイサイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ショウケイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -701,40 +675,31 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>favorite_comment</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>varchar2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>お気に入りコメント</t>
-    <rPh sb="1" eb="2">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>イ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+    <t>明細小計（税込)</t>
+  </si>
+  <si>
+    <t>注文合計(税込)</t>
+  </si>
+  <si>
+    <t>値段（税抜き）</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -742,7 +707,7 @@
     <font>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -750,7 +715,7 @@
     <font>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Arial"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -758,7 +723,7 @@
     <font>
       <sz val="18"/>
       <color rgb="FF212121"/>
-      <name val="游ゴシック"/>
+      <name val="Arial"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -792,7 +757,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -803,9 +768,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -1090,30 +1052,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J87"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="29.25" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.8"/>
   <cols>
-    <col min="1" max="1" width="42.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.19921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.09765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="63.5" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1145,20 +1107,20 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.7">
+        <v>99</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3" s="1">
         <v>10</v>
@@ -1170,9 +1132,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:10">
       <c r="A4" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
@@ -1184,15 +1146,15 @@
         <v>13</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:10">
       <c r="A5" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>10</v>
@@ -1204,26 +1166,26 @@
         <v>13</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.7">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="2"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:10">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.7">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>11</v>
@@ -1235,12 +1197,12 @@
         <v>13</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.7">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>12</v>
@@ -1252,12 +1214,12 @@
         <v>13</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.7">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>12</v>
@@ -1269,12 +1231,12 @@
         <v>13</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.7">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>12</v>
@@ -1286,21 +1248,21 @@
         <v>13</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.7">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>34</v>
+      <c r="B12" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="C12" s="1">
         <v>100</v>
@@ -1309,15 +1271,15 @@
         <v>13</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.7">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" s="1">
         <v>20</v>
@@ -1326,18 +1288,18 @@
         <v>13</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.7">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" s="1">
         <v>8</v>
@@ -1346,13 +1308,13 @@
         <v>13</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.7">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -1366,32 +1328,32 @@
         <v>13</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.7">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.7">
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>12</v>
@@ -1400,26 +1362,26 @@
         <v>10</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.7">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.7">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C20" s="1">
         <v>10</v>
@@ -1428,108 +1390,108 @@
         <v>13</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.7">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C21" s="1">
         <v>10</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.7">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J23" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="A24" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="B24" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C24" s="1">
         <v>10</v>
       </c>
       <c r="E24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="J24" s="1" t="s">
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="A25" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="C25" s="1">
         <v>100</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.7">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C28" s="1">
         <v>10</v>
       </c>
       <c r="E28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J28" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J28" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.7">
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C29" s="1">
         <v>10</v>
@@ -1538,35 +1500,35 @@
         <v>13</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.7">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C30" s="1">
         <v>10</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H30" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="J30" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="J30" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.7">
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>21</v>
@@ -1578,116 +1540,116 @@
         <v>22</v>
       </c>
       <c r="J31" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="A32" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B32" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="J32" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.7">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="J34" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="A35" s="3" t="s">
-        <v>62</v>
-      </c>
       <c r="B35" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C35" s="1">
         <v>10</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.7">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C36" s="1">
         <v>10</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.7">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="A38" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="D38" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.7">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="3"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J40" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="A41" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="C41" s="1">
         <v>10</v>
@@ -1696,46 +1658,46 @@
         <v>13</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.7">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I42" s="1">
         <v>0</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.7">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C45" s="1">
         <v>10</v>
@@ -1744,18 +1706,18 @@
         <v>13</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.7">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C46" s="1">
         <v>10</v>
@@ -1764,63 +1726,49 @@
         <v>13</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.7">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J47" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="A48" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C48" s="1">
-        <v>400</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.7">
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="2"/>
+    </row>
+    <row r="77" spans="1:1">
       <c r="A77" s="2"/>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.7">
+    <row r="78" spans="1:1">
       <c r="A78" s="2"/>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.7">
+    <row r="79" spans="1:1">
       <c r="A79" s="2"/>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.7">
+    <row r="80" spans="1:1">
       <c r="A80" s="2"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.7">
+    <row r="81" spans="1:1">
       <c r="A81" s="2"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.7">
-      <c r="A82" s="2"/>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.7">
-      <c r="A87" s="2"/>
+    <row r="86" spans="1:1" ht="29.25">
+      <c r="A86" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/DB.xlsx
+++ b/DB.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VIP\Documents\GitHub\newera\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kondo\Documents\GitHub\newera\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F17DE8-4E26-4254-A6F5-A1C3420A3E11}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23258" windowHeight="13178"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="123">
   <si>
     <t>列名</t>
   </si>
@@ -444,10 +443,6 @@
     <rPh sb="12" eb="14">
       <t>ソンザイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>〇</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -687,19 +682,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Arial"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -707,7 +702,7 @@
     <font>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -715,7 +710,7 @@
     <font>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -723,7 +718,7 @@
     <font>
       <sz val="18"/>
       <color rgb="FF212121"/>
-      <name val="Arial"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1052,30 +1047,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J29" sqref="J29"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="29.25" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="1" max="1" width="42.19921875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.09765625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.1875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.6875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="63.5" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1107,17 +1102,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.7">
+      <c r="A3" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>54</v>
@@ -1132,9 +1127,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A4" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
@@ -1146,15 +1141,15 @@
         <v>13</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A5" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>10</v>
@@ -1169,21 +1164,21 @@
         <v>70</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A6" s="2"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A8" s="2" t="s">
         <v>32</v>
       </c>
@@ -1200,9 +1195,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A9" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>12</v>
@@ -1214,12 +1209,12 @@
         <v>13</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A10" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>12</v>
@@ -1231,12 +1226,12 @@
         <v>13</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A11" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>12</v>
@@ -1254,10 +1249,10 @@
         <v>72</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -1271,10 +1266,10 @@
         <v>13</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A13" s="1" t="s">
         <v>31</v>
       </c>
@@ -1291,10 +1286,10 @@
         <v>77</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -1311,10 +1306,10 @@
         <v>78</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -1328,32 +1323,32 @@
         <v>13</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="J16" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.7">
+      <c r="A17" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>12</v>
@@ -1362,23 +1357,23 @@
         <v>10</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A19" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.7">
+      <c r="A20" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>50</v>
@@ -1390,15 +1385,15 @@
         <v>13</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A21" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>50</v>
@@ -1413,10 +1408,10 @@
         <v>74</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A23" s="1" t="s">
         <v>34</v>
       </c>
@@ -1424,7 +1419,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A24" s="1" t="s">
         <v>35</v>
       </c>
@@ -1441,9 +1436,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A25" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>39</v>
@@ -1458,10 +1453,10 @@
         <v>44</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A27" s="1" t="s">
         <v>40</v>
       </c>
@@ -1469,7 +1464,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A28" s="1" t="s">
         <v>56</v>
       </c>
@@ -1486,7 +1481,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A29" s="1" t="s">
         <v>41</v>
       </c>
@@ -1506,9 +1501,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A30" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>54</v>
@@ -1520,13 +1515,13 @@
         <v>57</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A31" s="1" t="s">
         <v>42</v>
       </c>
@@ -1543,7 +1538,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A32" s="1" t="s">
         <v>66</v>
       </c>
@@ -1554,10 +1549,10 @@
         <v>30</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A34" s="3" t="s">
         <v>60</v>
       </c>
@@ -1565,7 +1560,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A35" s="3" t="s">
         <v>61</v>
       </c>
@@ -1585,7 +1580,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A36" s="3" t="s">
         <v>64</v>
       </c>
@@ -1599,13 +1594,13 @@
         <v>57</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A37" s="3" t="s">
         <v>67</v>
       </c>
@@ -1619,9 +1614,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A38" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>69</v>
@@ -1630,13 +1625,13 @@
         <v>57</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A39" s="3"/>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A40" s="1" t="s">
         <v>45</v>
       </c>
@@ -1644,7 +1639,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A41" s="2" t="s">
         <v>48</v>
       </c>
@@ -1658,13 +1653,13 @@
         <v>13</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A42" s="1" t="s">
         <v>46</v>
       </c>
@@ -1684,7 +1679,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A44" s="1" t="s">
         <v>18</v>
       </c>
@@ -1692,7 +1687,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A45" s="1" t="s">
         <v>19</v>
       </c>
@@ -1712,7 +1707,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A46" s="1" t="s">
         <v>20</v>
       </c>
@@ -1726,48 +1721,48 @@
         <v>13</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A47" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I47" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J47" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="J47" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1">
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.7">
       <c r="A76" s="2"/>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.7">
       <c r="A77" s="2"/>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.7">
       <c r="A78" s="2"/>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.7">
       <c r="A79" s="2"/>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.7">
       <c r="A80" s="2"/>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.7">
       <c r="A81" s="2"/>
     </row>
-    <row r="86" spans="1:1" ht="29.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.7">
       <c r="A86" s="2"/>
     </row>
   </sheetData>

--- a/DB.xlsx
+++ b/DB.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="126">
   <si>
     <t>列名</t>
   </si>
@@ -677,6 +677,24 @@
   </si>
   <si>
     <t>値段（税抜き）</t>
+  </si>
+  <si>
+    <t>order_method</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>varchar2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>注文方法</t>
+    <rPh sb="0" eb="2">
+      <t>チュウモン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1048,11 +1066,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J86"/>
+  <dimension ref="A1:J87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="29.25" x14ac:dyDescent="0.7"/>
@@ -1540,49 +1558,46 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A32" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C32" s="1">
+        <v>30</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.7">
+      <c r="A33" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J32" s="1" t="s">
+      <c r="J33" s="1" t="s">
         <v>121</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="A34" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A35" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C35" s="1">
-        <v>10</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A36" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>55</v>
@@ -1594,122 +1609,122 @@
         <v>57</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A37" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>68</v>
+        <v>55</v>
+      </c>
+      <c r="C37" s="1">
+        <v>10</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="H37" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="J37" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A38" s="3" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>57</v>
       </c>
       <c r="J38" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.7">
+      <c r="A39" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J39" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="A39" s="3"/>
-    </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="3"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.7">
+      <c r="A41" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J40" s="1" t="s">
+      <c r="J41" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="A41" s="2" t="s">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.7">
+      <c r="A42" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C42" s="1">
         <v>10</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H41" s="1" t="s">
+      <c r="H42" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="J41" s="1" t="s">
+      <c r="J42" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="A42" s="1" t="s">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.7">
+      <c r="A43" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="G43" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="I42" s="1">
+      <c r="I43" s="1">
         <v>0</v>
       </c>
-      <c r="J42" s="1" t="s">
+      <c r="J43" s="1" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="A44" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A45" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C45" s="1">
-        <v>10</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A46" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>50</v>
@@ -1721,31 +1736,48 @@
         <v>13</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A47" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47" s="1">
+        <v>10</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.7">
+      <c r="A48" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B48" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I47" s="1" t="s">
+      <c r="I48" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="J47" s="1" t="s">
+      <c r="J48" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.7">
-      <c r="A76" s="2"/>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.7">
       <c r="A77" s="2"/>
@@ -1762,8 +1794,11 @@
     <row r="81" spans="1:1" x14ac:dyDescent="0.7">
       <c r="A81" s="2"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.7">
-      <c r="A86" s="2"/>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A82" s="2"/>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A87" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
